--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -482,10 +492,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B5:F5 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,62 +535,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -588,14 +598,22 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -618,7 +636,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B5:F5 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,18 +646,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -650,7 +668,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -661,7 +679,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -672,7 +690,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -683,7 +701,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -694,7 +712,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -722,7 +740,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B5:F5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -732,21 +750,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -760,7 +778,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -774,7 +792,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -788,7 +806,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -802,7 +820,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -816,7 +834,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -830,7 +848,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -844,7 +862,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -858,7 +876,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -872,7 +890,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +904,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +918,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +932,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -945,7 +963,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B5:F5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -955,21 +973,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -983,7 +1001,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -997,7 +1015,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1011,7 +1029,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1025,7 +1043,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1039,7 +1057,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1053,7 +1071,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1067,7 +1085,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1081,7 +1099,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1095,7 +1113,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1109,7 +1127,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1123,7 +1141,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1137,7 +1155,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1151,7 +1169,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1165,7 +1183,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1179,7 +1197,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1193,7 +1211,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1207,7 +1225,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1221,7 +1239,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1235,7 +1253,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1265,14 +1283,14 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1282,57 +1300,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1343,22 +1361,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -1369,25 +1387,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1398,19 +1416,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1421,19 +1439,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1444,22 +1462,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1470,10 +1488,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1484,10 +1502,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1498,10 +1516,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1512,10 +1530,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1526,10 +1544,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1540,10 +1558,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1554,10 +1572,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1585,7 +1603,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B5:F5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,72 +1613,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1725,7 +1743,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1790,7 +1808,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1855,7 +1873,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1920,7 +1938,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1985,7 +2003,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2050,7 +2068,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2115,7 +2133,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2180,7 +2198,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2245,7 +2263,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2310,7 +2328,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2375,7 +2393,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2440,7 +2458,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2522,7 +2540,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B5:F5 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A5:B5 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2532,30 +2550,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2572,10 +2590,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2592,10 +2610,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2612,10 +2630,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2632,10 +2650,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2652,10 +2670,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2672,10 +2690,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2692,10 +2710,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2712,10 +2730,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2732,10 +2750,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2752,10 +2770,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2772,10 +2790,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2792,10 +2810,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2812,10 +2830,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2832,10 +2850,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2852,10 +2870,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2872,10 +2890,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2892,10 +2910,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2912,10 +2930,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2932,10 +2950,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2969,7 +2987,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B5:F5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2979,27 +2997,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3010,10 +3028,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3024,10 +3042,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3038,10 +3056,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3052,10 +3070,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3066,10 +3084,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3080,10 +3098,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3094,10 +3112,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3108,10 +3126,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3122,10 +3140,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3136,10 +3154,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3150,10 +3168,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3164,10 +3182,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3195,7 +3213,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B5:F5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3205,72 +3223,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3310,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B5:F5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3302,107 +3320,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3424,7 +3442,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B5:F5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3434,107 +3452,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3574,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B5:F5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3566,18 +3584,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3588,7 +3606,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3599,7 +3617,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3610,7 +3628,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3621,7 +3639,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3632,7 +3650,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3643,7 +3661,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3654,7 +3672,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3676,7 +3694,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3687,7 +3705,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3698,7 +3716,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3709,7 +3727,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3737,7 +3755,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B5:F5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3747,18 +3765,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3769,7 +3787,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3780,7 +3798,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3791,7 +3809,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3802,7 +3820,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3813,7 +3831,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3824,7 +3842,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3835,7 +3853,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3846,7 +3864,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3857,7 +3875,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3868,7 +3886,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3879,7 +3897,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3890,7 +3908,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3901,7 +3919,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3912,7 +3930,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3923,7 +3941,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3934,7 +3952,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3945,7 +3963,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3956,7 +3974,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3967,7 +3985,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -494,8 +494,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,7 +663,8 @@
         <v>-22.0149320730417</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +675,8 @@
         <v>0.285369137837419</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +687,8 @@
         <v>0.0578197638950879</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,7 +699,8 @@
         <v>-0.00439408376660814</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,7 +711,8 @@
         <v>6.84865633256387</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +723,8 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +746,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -963,7 +969,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1284,13 +1290,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1603,7 +1609,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2540,7 +2546,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A5:B5 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2987,7 +2993,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3213,7 +3219,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3310,7 +3316,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3442,7 +3448,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3574,7 +3580,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3755,7 +3761,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_const_effector</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -492,15 +474,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,24 +494,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -587,6 +570,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -596,27 +582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -635,8 +603,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B3 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,18 +614,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -669,7 +637,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -681,7 +649,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -693,7 +661,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -705,7 +673,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -717,7 +685,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -746,7 +714,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -756,21 +724,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -784,7 +752,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -798,7 +766,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -812,7 +780,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -826,7 +794,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -840,7 +808,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -854,7 +822,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -868,7 +836,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -882,7 +850,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -896,7 +864,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -910,7 +878,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -924,7 +892,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -938,7 +906,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -969,7 +937,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,21 +947,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1007,7 +975,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1021,7 +989,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1003,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1017,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1063,7 +1031,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1077,7 +1045,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1091,7 +1059,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1105,7 +1073,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1119,7 +1087,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1133,7 +1101,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1147,7 +1115,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1161,7 +1129,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1175,7 +1143,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1189,7 +1157,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1203,7 +1171,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1217,7 +1185,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1231,7 +1199,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1245,7 +1213,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1259,7 +1227,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1290,7 +1258,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B3 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1306,57 +1274,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1367,22 +1335,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -1393,25 +1361,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1422,19 +1390,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1445,19 +1413,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1468,22 +1436,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1494,10 +1462,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1508,10 +1476,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1522,10 +1490,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1536,10 +1504,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1550,10 +1518,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1564,10 +1532,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1578,10 +1546,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1609,7 +1577,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,72 +1587,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1749,7 +1717,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1814,7 +1782,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1879,7 +1847,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1944,7 +1912,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2009,7 +1977,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2074,7 +2042,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2139,7 +2107,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2204,7 +2172,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2269,7 +2237,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2334,7 +2302,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2399,7 +2367,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2464,7 +2432,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2543,434 +2511,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2990,214 +2833,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3021,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3229,72 +3031,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3118,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3326,107 +3128,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3250,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3458,107 +3260,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3382,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3590,18 +3392,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3612,7 +3414,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3623,7 +3425,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3634,7 +3436,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3645,7 +3447,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3656,7 +3458,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3667,7 +3469,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3678,7 +3480,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3689,7 +3491,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3700,7 +3502,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3711,7 +3513,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3524,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3733,7 +3535,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3761,7 +3563,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3771,18 +3573,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3793,7 +3595,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3804,7 +3606,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3815,7 +3617,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3826,7 +3628,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3837,7 +3639,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3848,7 +3650,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3859,7 +3661,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3870,7 +3672,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3881,7 +3683,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3892,7 +3694,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3903,7 +3705,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3914,7 +3716,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3925,7 +3727,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3738,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3947,7 +3749,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3958,7 +3760,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3969,7 +3771,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3980,7 +3782,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3991,7 +3793,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -441,12 +438,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -476,7 +473,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +601,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B3 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -614,13 +611,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +711,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -724,16 +721,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +934,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,16 +944,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1255,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B3 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,40 +1271,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,13 +1312,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1338,16 +1335,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>32</v>
@@ -1364,16 +1361,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1393,13 +1390,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>32</v>
@@ -1416,16 +1413,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1439,16 +1436,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1465,7 +1462,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1479,7 +1476,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1493,7 +1490,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1507,7 +1504,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1521,7 +1518,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1535,7 +1532,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1549,7 +1546,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1577,7 +1574,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2511,16 +2508,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,21 +2530,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2555,13 +2546,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,13 +2557,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2583,13 +2568,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2597,111 +2579,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2709,13 +2667,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2723,13 +2678,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,13 +2689,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,13 +2700,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2765,13 +2711,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2779,13 +2722,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2793,13 +2733,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2807,13 +2744,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2836,7 +2770,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2850,20 +2784,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2874,7 +2808,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2885,7 +2819,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2896,7 +2830,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2907,7 +2841,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2918,7 +2852,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2929,7 +2863,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2940,7 +2874,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2951,7 +2885,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2962,7 +2896,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2973,7 +2907,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2984,7 +2918,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2995,7 +2929,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3021,7 +2955,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3118,7 +3052,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3128,7 +3062,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,7 +3184,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3260,7 +3194,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,7 +3316,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3392,13 +3326,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3497,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3573,13 +3507,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -598,116 +597,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">ABS(0.15*B2)</f>
-        <v>3.30223981095625</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">ABS(0.15*B3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">ABS(0.15*B4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">ABS(0.15*B5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">ABS(0.15*B6)</f>
-        <v>1.02729844988458</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">ABS(0.15*B7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -926,7 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1247,7 +1136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2510,7 +2399,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2952,9 +2841,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2965,72 +2854,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3181,138 +3105,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3489,7 +3281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3745,4 +3537,114 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_const_effector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -424,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +444,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -472,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,64 +535,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -600,7 +627,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,21 +637,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -638,7 +665,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -652,7 +679,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -666,7 +693,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -680,7 +707,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -694,7 +721,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -708,7 +735,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -722,7 +749,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -736,7 +763,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -750,7 +777,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -764,7 +791,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -778,7 +805,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -792,7 +819,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -823,7 +850,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,21 +860,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -861,7 +888,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -875,7 +902,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -889,7 +916,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -903,7 +930,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -917,7 +944,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -931,7 +958,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -945,7 +972,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -959,7 +986,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -973,7 +1000,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -987,7 +1014,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1001,7 +1028,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1015,7 +1042,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1029,7 +1056,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1043,7 +1070,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1057,7 +1084,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1071,7 +1098,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1085,7 +1112,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1099,7 +1126,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1113,7 +1140,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1144,7 +1171,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A6:B7 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1160,57 +1187,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1221,22 +1248,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -1247,25 +1274,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1276,19 +1303,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1299,19 +1326,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1322,22 +1349,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1348,10 +1375,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1362,10 +1389,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1376,10 +1403,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1390,10 +1417,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1404,10 +1431,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1418,10 +1445,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1432,10 +1459,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1463,7 +1490,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1473,72 +1500,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1603,7 +1630,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1668,7 +1695,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1733,7 +1760,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1798,7 +1825,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1863,7 +1890,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1928,7 +1955,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1993,7 +2020,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2058,7 +2085,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2123,7 +2150,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2188,7 +2215,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2253,7 +2280,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2318,7 +2345,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2400,7 +2427,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2411,21 +2438,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2433,10 +2460,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2444,10 +2471,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2455,10 +2482,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2466,10 +2493,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2477,10 +2504,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2488,10 +2515,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2499,10 +2526,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2510,10 +2537,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2521,10 +2548,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2532,10 +2559,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2543,10 +2570,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2554,10 +2581,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2565,10 +2592,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2576,10 +2603,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2587,10 +2614,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2598,10 +2625,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2609,10 +2636,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2620,10 +2647,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2631,10 +2658,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2659,7 +2686,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2670,24 +2697,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2695,10 +2722,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2706,10 +2733,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2717,10 +2744,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2728,10 +2755,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2739,10 +2766,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2750,10 +2777,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2761,10 +2788,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2772,10 +2799,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2783,10 +2810,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2794,10 +2821,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2805,10 +2832,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2816,10 +2843,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2843,8 +2870,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2854,107 +2881,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3003,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2986,107 +3013,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +3135,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3118,18 +3145,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3140,7 +3167,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3151,7 +3178,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3162,7 +3189,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3173,7 +3200,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3184,7 +3211,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3195,7 +3222,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3206,7 +3233,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3217,7 +3244,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3228,7 +3255,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3239,7 +3266,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3250,7 +3277,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3261,7 +3288,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3289,7 +3316,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3299,18 +3326,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3321,7 +3348,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3332,7 +3359,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3343,7 +3370,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3354,7 +3381,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3365,7 +3392,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3376,7 +3403,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3387,7 +3414,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3398,7 +3425,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3409,7 +3436,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3420,7 +3447,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3431,7 +3458,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3442,7 +3469,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3453,7 +3480,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3464,7 +3491,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3475,7 +3502,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3486,7 +3513,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3497,7 +3524,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3508,7 +3535,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3519,7 +3546,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3547,7 +3574,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A6:B7 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3557,18 +3584,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3580,7 +3607,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3592,7 +3619,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3604,7 +3631,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3616,7 +3643,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3628,7 +3655,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
